--- a/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
@@ -5186,166 +5186,166 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>2204030002</t>
+          <t>2707130043</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>HAMSTER ROBOROSKI (PHODOPUS ROVBO)</t>
+          <t>RASBORA ARLEQUIN</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>43</v>
+        <v>57.52</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>21.78</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T4" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>2707130043</t>
+          <t>2204030002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>RASBORA ARLEQUIN</t>
+          <t>HAMSTER ROBOROSKI (PHODOPUS ROVBO)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>57.52</v>
+        <v>43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>21.78</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T5" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T5" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10971,12 +10971,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>2707060006</t>
+          <t>2707130078</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>NEON CHINO ORO</t>
+          <t>KILLI SURTIDO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -10995,37 +10995,37 @@
         <v>15</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>23.4</v>
+        <v>29.96</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>12.62</v>
+        <v>18.04</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>80</v>
+        <v>5.19</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="M18" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O18" s="4" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>553.33</v>
+        <v>613.33</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>30</v>
@@ -11037,29 +11037,29 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.59€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>2707130078</t>
+          <t>2707060006</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>KILLI SURTIDO</t>
+          <t>NEON CHINO ORO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -11078,37 +11078,37 @@
         <v>15</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>29.96</v>
+        <v>23.4</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>18.04</v>
+        <v>12.62</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>5.19</v>
+        <v>80</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>613.33</v>
+        <v>553.33</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -11120,17 +11120,17 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.59€. Prioridad máxima.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -14411,12 +14411,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2104050002</t>
+          <t>2104090011</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
+          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -14456,19 +14456,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>96.67</v>
+        <v>30</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -14477,12 +14477,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14494,24 +14494,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>2707050028</t>
+          <t>2806030001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BETTA HELLBOY MACHO</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>COMETA SURTIDO XL</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>15CM</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14530,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -14539,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -14560,7 +14568,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14577,12 +14585,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>2707130020</t>
+          <t>2707050022</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LABEO ZORRO VOLADOR</t>
+          <t>BETTA KOI</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -14613,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -14622,19 +14630,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>60</v>
+        <v>613.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -14643,12 +14651,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14660,12 +14668,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>2707090006</t>
+          <t>2707100040</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
+          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -14711,10 +14719,10 @@
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>180</v>
+        <v>613.33</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>30</v>
@@ -14726,12 +14734,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14743,12 +14751,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>2707130012</t>
+          <t>2707190004</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>KILLI GARDNERI</t>
+          <t>ANCISTRUS SP ADULTO</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -14779,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -14788,19 +14796,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>40</v>
+        <v>506.67</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -14809,12 +14817,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -14826,28 +14834,28 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>2707090002</t>
+          <t>2204010008</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO TANGANICA SURTIDO</t>
+          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0</v>
@@ -14862,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -14871,16 +14879,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>506.67</v>
+        <v>276.67</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>30</v>
@@ -14897,7 +14905,7 @@
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -14909,12 +14917,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>2707100002</t>
+          <t>2707120008</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
+          <t>HYPANCISTRUS L66 3-4</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -14945,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -14954,16 +14962,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>273.33</v>
+        <v>506.67</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>30</v>
@@ -14980,7 +14988,7 @@
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -14992,28 +15000,28 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>2707100024</t>
+          <t>2104050002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>APISTOGRAMA BORELLI</t>
+          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>0</v>
@@ -15028,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -15037,19 +15045,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>613.33</v>
+        <v>96.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -15058,12 +15066,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15075,12 +15083,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>2707130083</t>
+          <t>2707090002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>POPONDETA PASKAI</t>
+          <t>CICLIDO TANGANICA SURTIDO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -15126,10 +15134,10 @@
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S10" s="5" t="n">
         <v>30</v>
@@ -15141,12 +15149,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -15158,28 +15166,36 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>2104090011</t>
+          <t>2806010002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
+          <t>COMETA SARASA XL</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>10I12</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>0</v>
@@ -15194,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -15203,19 +15219,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>30</v>
+        <v>273.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -15224,12 +15240,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15241,12 +15257,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>2707130030</t>
+          <t>2707130087</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>PEZ CUCHILLO FANTASMA</t>
+          <t>MICRORASBORA KUBOTAI</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15277,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -15286,16 +15302,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>30</v>
@@ -15307,12 +15323,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15324,28 +15340,36 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>2707130084</t>
+          <t>2805040002</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>PANCHAX RAYADO</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>PLANTA ESTANQUE FLOTANTE</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PLANTAS JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>0</v>
@@ -15375,13 +15399,13 @@
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>613.33</v>
+        <v>130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -15390,12 +15414,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -15407,24 +15431,16 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>2707130026</t>
+          <t>2707130083</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>PANGASIUS SUTCHI</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>POPONDETA PASKAI</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -15451,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -15460,19 +15476,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>60</v>
+        <v>613.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -15481,12 +15497,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15498,12 +15514,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>2707120009</t>
+          <t>2707070011</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>LORICARIA FILAMENTOSA</t>
+          <t>TETRA NEON ROSA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -15534,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -15543,19 +15559,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -15564,12 +15580,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 07/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15581,12 +15597,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>2707050001</t>
+          <t>2707170006</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BESUCON HELOSTOMA TEMMINCKII</t>
+          <t>BADIS ESCARLATA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -15617,7 +15633,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -15626,16 +15642,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>613.33</v>
+        <v>180</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>30</v>
@@ -15647,12 +15663,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15664,12 +15680,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>2707050018</t>
+          <t>2707190011</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>GURAMI SURTIDO</t>
+          <t>PLECOSTOMUS ORO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -15700,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -15709,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -15730,7 +15746,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -15747,12 +15763,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>2707130074</t>
+          <t>2707130084</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PEZ HACHA MARMOL</t>
+          <t>PANCHAX RAYADO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -15783,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -15792,16 +15808,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>573.33</v>
+        <v>613.33</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>30</v>
@@ -15813,12 +15829,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15830,32 +15846,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>2806030001</t>
+          <t>2707050018</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>COMETA SURTIDO XL</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>15CM</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GURAMI SURTIDO</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15874,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -15883,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
@@ -15904,7 +15912,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -15921,28 +15929,28 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>2606050001</t>
+          <t>2707100002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
+          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO REPTILES</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>0</v>
@@ -15957,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -15966,19 +15974,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>20</v>
+        <v>273.33</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -15987,12 +15995,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -16004,24 +16012,32 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>2806030003</t>
+          <t>2708010010</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
+          <t>FANTAIL SURTIDO</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>5CM</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16040,7 +16056,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -16049,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
@@ -16070,7 +16086,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16087,12 +16103,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707130030</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PEZ GLOBO AGUA DULCE</t>
+          <t>PEZ CUCHILLO FANTASMA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -16123,7 +16139,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -16132,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
@@ -16153,7 +16169,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -16253,28 +16269,28 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>2707110003</t>
+          <t>2104090002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>BOTIA LOHACHATA</t>
+          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H24" s="4" t="n">
         <v>0</v>
@@ -16289,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -16298,19 +16314,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>613.33</v>
+        <v>30</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -16319,12 +16335,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16336,32 +16352,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>2708010010</t>
+          <t>2707130012</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FANTAIL SURTIDO</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>5CM</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>KILLI GARDNERI</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16380,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -16389,19 +16397,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T25" s="7" t="inlineStr">
         <is>
@@ -16410,12 +16418,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16427,12 +16435,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>2707130087</t>
+          <t>2707130020</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MICRORASBORA KUBOTAI</t>
+          <t>LABEO ZORRO VOLADOR</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -16463,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -16472,19 +16480,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>506.67</v>
+        <v>60</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -16493,12 +16501,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -16510,12 +16518,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>2707100040</t>
+          <t>2707100014</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
+          <t>OSCAR SURTIDO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16546,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -16555,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -16576,7 +16584,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -16593,12 +16601,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707040007</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PEZ  GLOBO AGUA DULCE</t>
+          <t>BARBO SAWBWA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16629,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -16638,16 +16646,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>553.33</v>
+        <v>613.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>30</v>
@@ -16659,12 +16667,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -16676,32 +16684,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>2708010014</t>
+          <t>2707050001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>RYUKIN SURTIDO</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BESUCON HELOSTOMA TEMMINCKII</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16720,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -16729,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
@@ -16750,7 +16750,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -16767,12 +16767,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>2707100014</t>
+          <t>2707050026</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>OSCAR SURTIDO</t>
+          <t>BETTA MACHO LONG TAIL</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -16812,16 +16812,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>613.33</v>
+        <v>313.33</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>30</v>
@@ -16833,12 +16833,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16850,12 +16850,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>2707070011</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>TETRA NEON ROSA</t>
+          <t>PEZ GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -16886,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -16895,16 +16895,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>160</v>
+        <v>613.33</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>30</v>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 07/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16933,24 +16933,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2708020004</t>
+          <t>2806030003</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>TELESCOPIO ROJO 6-7CM</t>
+          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16969,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -16978,16 +16978,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>246.67</v>
+        <v>613.33</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -16999,12 +16999,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -17016,16 +17016,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2707130055</t>
+          <t>2707130026</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>PEZ MARIPOSA PANTODON</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
+          <t>PANGASIUS SUTCHI</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -17052,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -17061,16 +17069,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>0</v>
@@ -17087,7 +17095,7 @@
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17099,28 +17107,28 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2104090002</t>
+          <t>2707090006</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
+          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>0</v>
@@ -17135,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -17144,19 +17152,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
@@ -17165,12 +17173,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17182,12 +17190,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2707050022</t>
+          <t>2707090011</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>BETTA KOI</t>
+          <t>CICLIDO MULTICOLOR</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -17233,10 +17241,10 @@
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>613.33</v>
+        <v>180</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -17248,12 +17256,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -17265,36 +17273,28 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2805040002</t>
+          <t>2707110001</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PLANTA ESTANQUE FLOTANTE</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOTIA CARA CABALLO</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H36" s="4" t="n">
         <v>0</v>
@@ -17324,13 +17324,13 @@
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T36" s="7" t="inlineStr">
         <is>
@@ -17339,12 +17339,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17356,12 +17356,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>2707090011</t>
+          <t>2707050028</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO MULTICOLOR</t>
+          <t>BETTA HELLBOY MACHO</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -17401,16 +17401,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>180</v>
+        <v>613.33</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>30</v>
@@ -17422,12 +17422,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -17439,24 +17439,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>2707110001</t>
+          <t>2806030002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>BOTIA CARA CABALLO</t>
+          <t>ESTURION (CITES CZ18737749)</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17475,7 +17475,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -17484,19 +17484,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T38" s="7" t="inlineStr">
         <is>
@@ -17505,12 +17505,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -17522,12 +17522,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>2707190004</t>
+          <t>2707130055</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ANCISTRUS SP ADULTO</t>
+          <t>PEZ MARIPOSA PANTODON</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -17567,19 +17567,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>506.67</v>
+        <v>40</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T39" s="7" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -17605,12 +17605,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>2707040007</t>
+          <t>2707130086</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>BARBO SAWBWA</t>
+          <t>LABEO ALBINO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -17650,16 +17650,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>30</v>
@@ -17671,12 +17671,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17688,28 +17688,28 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>2204010008</t>
+          <t>2707110003</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
+          <t>BOTIA LOHACHATA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>0</v>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -17733,16 +17733,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>276.67</v>
+        <v>613.33</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>30</v>
@@ -17754,12 +17754,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17771,24 +17771,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>2707170006</t>
+          <t>2708020004</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>BADIS ESCARLATA</t>
+          <t>TELESCOPIO ROJO 6-7CM</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -17816,16 +17816,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>180</v>
+        <v>246.67</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>30</v>
@@ -17842,7 +17842,7 @@
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17854,12 +17854,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>2707130086</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>LABEO ALBINO</t>
+          <t>PEZ  GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -17905,10 +17905,10 @@
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>506.67</v>
+        <v>553.33</v>
       </c>
       <c r="S43" s="5" t="n">
         <v>30</v>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -17937,24 +17937,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>2806030002</t>
+          <t>2707120009</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ESTURION (CITES CZ18737749)</t>
+          <t>LORICARIA FILAMENTOSA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17988,13 +17988,13 @@
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -18003,12 +18003,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -18020,28 +18020,28 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>2707050026</t>
+          <t>2606050001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>BETTA MACHO LONG TAIL</t>
+          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO REPTILES</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>0</v>
@@ -18056,7 +18056,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -18065,19 +18065,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>313.33</v>
+        <v>20</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -18086,12 +18086,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18103,12 +18103,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>2707120008</t>
+          <t>2707100024</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>HYPANCISTRUS L66 3-4</t>
+          <t>APISTOGRAMA BORELLI</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -18154,10 +18154,10 @@
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>30</v>
@@ -18169,12 +18169,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18186,32 +18186,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>2806010002</t>
+          <t>2708010011</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>COMETA SARASA XL</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>10I12</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RANCHU SURTIDO 5-6</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18230,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -18239,16 +18231,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>273.33</v>
+        <v>613.33</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>30</v>
@@ -18260,12 +18252,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -18277,24 +18269,32 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>2707190011</t>
+          <t>2708010014</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>PLECOSTOMUS ORO</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
+          <t>RYUKIN SURTIDO</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18313,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -18322,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
@@ -18343,7 +18343,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -18360,24 +18360,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>2708010011</t>
+          <t>2707130074</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>RANCHU SURTIDO 5-6</t>
+          <t>PEZ HACHA MARMOL</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -18405,16 +18405,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>613.33</v>
+        <v>573.33</v>
       </c>
       <c r="S49" s="5" t="n">
         <v>30</v>
@@ -18426,12 +18426,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/03/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
@@ -14411,28 +14411,28 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2104090011</t>
+          <t>2707090006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
+          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -14456,19 +14456,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -14477,12 +14477,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14494,32 +14494,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>2806030001</t>
+          <t>2707100014</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>COMETA SURTIDO XL</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>15CM</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>OSCAR SURTIDO</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14538,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -14547,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -14568,7 +14560,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14585,12 +14577,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>2707050022</t>
+          <t>2707130074</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BETTA KOI</t>
+          <t>PEZ HACHA MARMOL</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -14621,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -14630,16 +14622,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>613.33</v>
+        <v>573.33</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>30</v>
@@ -14651,12 +14643,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/03/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14668,28 +14660,36 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>2707100040</t>
+          <t>2805040002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>PLANTA ESTANQUE FLOTANTE</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PLANTAS JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>0</v>
@@ -14719,13 +14719,13 @@
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>613.33</v>
+        <v>130</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -14734,12 +14734,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14751,28 +14751,28 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>2707190004</t>
+          <t>2104090002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ANCISTRUS SP ADULTO</t>
+          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0</v>
@@ -14802,13 +14802,13 @@
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>506.67</v>
+        <v>30</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -14817,12 +14817,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -14834,28 +14834,28 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>2204010008</t>
+          <t>2708020004</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
+          <t>TELESCOPIO ROJO 6-7CM</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0</v>
@@ -14870,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -14879,16 +14879,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>276.67</v>
+        <v>246.67</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>30</v>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -15000,28 +15000,28 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>2104050002</t>
+          <t>2707100040</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
+          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>0</v>
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -15045,19 +15045,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>96.67</v>
+        <v>613.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -15066,12 +15066,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15083,12 +15083,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>2707090002</t>
+          <t>2707130030</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO TANGANICA SURTIDO</t>
+          <t>PEZ CUCHILLO FANTASMA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -15128,16 +15128,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S10" s="5" t="n">
         <v>30</v>
@@ -15149,12 +15149,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -15166,17 +15166,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>2806010002</t>
+          <t>2707130026</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>COMETA SARASA XL</t>
+          <t>PANGASIUS SUTCHI</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>10I12</t>
+          <t>5I6</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -15186,12 +15186,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15210,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -15219,19 +15219,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>273.33</v>
+        <v>60</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -15240,12 +15240,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15257,12 +15257,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>2707130087</t>
+          <t>2707050028</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MICRORASBORA KUBOTAI</t>
+          <t>BETTA HELLBOY MACHO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -15302,16 +15302,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>30</v>
@@ -15323,12 +15323,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15340,36 +15340,28 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>2805040002</t>
+          <t>2707100024</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>PLANTA ESTANQUE FLOTANTE</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>APISTOGRAMA BORELLI</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>0</v>
@@ -15384,7 +15376,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -15393,19 +15385,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>130</v>
+        <v>613.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -15414,12 +15406,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -15431,12 +15423,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>2707130083</t>
+          <t>2707070011</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>POPONDETA PASKAI</t>
+          <t>TETRA NEON ROSA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -15467,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -15476,16 +15468,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>613.33</v>
+        <v>160</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>30</v>
@@ -15497,12 +15489,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 07/05/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15514,28 +15506,28 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>2707070011</t>
+          <t>2104090011</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>TETRA NEON ROSA</t>
+          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>0</v>
@@ -15550,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -15559,19 +15551,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -15580,12 +15572,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 07/05/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15597,12 +15589,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>2707170006</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BADIS ESCARLATA</t>
+          <t>PEZ  GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -15633,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -15642,16 +15634,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>180</v>
+        <v>553.33</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>30</v>
@@ -15668,7 +15660,7 @@
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15680,12 +15672,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>2707190011</t>
+          <t>2707050001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>PLECOSTOMUS ORO</t>
+          <t>BESUCON HELOSTOMA TEMMINCKII</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -15716,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -15725,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -15746,7 +15738,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -15763,24 +15755,32 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>2707130084</t>
+          <t>2806010002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PANCHAX RAYADO</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
+          <t>COMETA SARASA XL</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>10I12</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -15808,16 +15808,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>613.33</v>
+        <v>273.33</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>30</v>
@@ -15829,12 +15829,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15846,24 +15846,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>2707050018</t>
+          <t>2708010011</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>GURAMI SURTIDO</t>
+          <t>RANCHU SURTIDO 5-6</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15882,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
@@ -15912,7 +15912,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -15929,12 +15929,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>2707100002</t>
+          <t>2707050022</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
+          <t>BETTA KOI</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -15965,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -15974,16 +15974,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>273.33</v>
+        <v>613.33</v>
       </c>
       <c r="S20" s="5" t="n">
         <v>30</v>
@@ -15995,12 +15995,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -16012,32 +16012,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>2708010010</t>
+          <t>2707130020</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>FANTAIL SURTIDO</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>5CM</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LABEO ZORRO VOLADOR</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16056,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -16065,19 +16057,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>613.33</v>
+        <v>60</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -16086,12 +16078,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -16103,28 +16095,28 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>2707130030</t>
+          <t>2104050002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PEZ CUCHILLO FANTASMA</t>
+          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>0</v>
@@ -16139,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -16148,19 +16140,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>613.33</v>
+        <v>96.67</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -16169,12 +16161,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16186,28 +16178,28 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>2104090001</t>
+          <t>2707100002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
+          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H23" s="4" t="n">
         <v>0</v>
@@ -16222,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -16231,19 +16223,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>30</v>
+        <v>273.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -16252,12 +16244,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16269,28 +16261,28 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>2104090002</t>
+          <t>2707090011</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
+          <t>CICLIDO MULTICOLOR</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H24" s="4" t="n">
         <v>0</v>
@@ -16305,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -16314,19 +16306,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -16335,12 +16327,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16352,28 +16344,28 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>2707130012</t>
+          <t>2204010008</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>KILLI GARDNERI</t>
+          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H25" s="4" t="n">
         <v>0</v>
@@ -16388,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -16397,19 +16389,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>40</v>
+        <v>276.67</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T25" s="7" t="inlineStr">
         <is>
@@ -16418,12 +16410,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16435,28 +16427,28 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>2707130020</t>
+          <t>2104090001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>LABEO ZORRO VOLADOR</t>
+          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H26" s="4" t="n">
         <v>0</v>
@@ -16471,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -16480,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -16489,7 +16481,7 @@
         <v>9</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>0</v>
@@ -16518,12 +16510,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>2707100014</t>
+          <t>2707190011</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>OSCAR SURTIDO</t>
+          <t>PLECOSTOMUS ORO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16554,7 +16546,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -16563,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -16584,7 +16576,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -16601,12 +16593,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>2707040007</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>BARBO SAWBWA</t>
+          <t>PEZ GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16637,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -16646,7 +16638,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -16667,7 +16659,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16684,12 +16676,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>2707050001</t>
+          <t>2707130083</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>BESUCON HELOSTOMA TEMMINCKII</t>
+          <t>POPONDETA PASKAI</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -16750,7 +16742,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -16767,12 +16759,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>2707050026</t>
+          <t>2707110001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>BETTA MACHO LONG TAIL</t>
+          <t>BOTIA CARA CABALLO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -16818,13 +16810,13 @@
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>313.33</v>
+        <v>40</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -16833,12 +16825,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16850,28 +16842,28 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2606050001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>PEZ GLOBO AGUA DULCE</t>
+          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO REPTILES</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>0</v>
@@ -16886,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -16895,19 +16887,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>613.33</v>
+        <v>20</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -16916,12 +16908,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16933,24 +16925,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2806030003</t>
+          <t>2707050026</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
+          <t>BETTA MACHO LONG TAIL</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16969,7 +16961,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -16978,16 +16970,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>613.33</v>
+        <v>313.33</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -16999,12 +16991,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -17016,24 +17008,16 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2707130026</t>
+          <t>2707130012</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>PANGASIUS SUTCHI</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>KILLI GARDNERI</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -17060,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -17069,16 +17053,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>0</v>
@@ -17095,7 +17079,7 @@
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17107,12 +17091,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2707090006</t>
+          <t>2707090002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
+          <t>CICLIDO TANGANICA SURTIDO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -17158,10 +17142,10 @@
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>180</v>
+        <v>506.67</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>30</v>
@@ -17178,7 +17162,7 @@
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17190,12 +17174,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2707090011</t>
+          <t>2707040007</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO MULTICOLOR</t>
+          <t>BARBO SAWBWA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -17226,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -17235,16 +17219,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>180</v>
+        <v>613.33</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -17256,12 +17240,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -17273,12 +17257,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2707110001</t>
+          <t>2707130086</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>BOTIA CARA CABALLO</t>
+          <t>LABEO ALBINO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -17309,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -17318,19 +17302,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>40</v>
+        <v>506.67</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T36" s="7" t="inlineStr">
         <is>
@@ -17339,12 +17323,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17356,24 +17340,32 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>2707050028</t>
+          <t>2708010010</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BETTA HELLBOY MACHO</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
+          <t>FANTAIL SURTIDO</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>5CM</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17392,7 +17384,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -17401,7 +17393,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
@@ -17422,7 +17414,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -17439,12 +17431,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>2806030002</t>
+          <t>2806030003</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ESTURION (CITES CZ18737749)</t>
+          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -17475,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -17484,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
@@ -17505,7 +17497,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17522,12 +17514,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>2707130055</t>
+          <t>2707170006</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PEZ MARIPOSA PANTODON</t>
+          <t>BADIS ESCARLATA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17558,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -17567,19 +17559,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T39" s="7" t="inlineStr">
         <is>
@@ -17588,12 +17580,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -17605,12 +17597,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>2707130086</t>
+          <t>2707050018</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>LABEO ALBINO</t>
+          <t>GURAMI SURTIDO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17641,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -17650,16 +17642,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>30</v>
@@ -17671,12 +17663,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17688,12 +17680,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>2707110003</t>
+          <t>2707130084</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BOTIA LOHACHATA</t>
+          <t>PANCHAX RAYADO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -17724,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -17733,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
@@ -17754,7 +17746,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -17771,24 +17763,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>2708020004</t>
+          <t>2707190004</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>TELESCOPIO ROJO 6-7CM</t>
+          <t>ANCISTRUS SP ADULTO</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17807,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -17816,16 +17808,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>246.67</v>
+        <v>506.67</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>30</v>
@@ -17842,7 +17834,7 @@
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17854,12 +17846,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707130087</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>PEZ  GLOBO AGUA DULCE</t>
+          <t>MICRORASBORA KUBOTAI</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -17890,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -17899,16 +17891,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>553.33</v>
+        <v>506.67</v>
       </c>
       <c r="S43" s="5" t="n">
         <v>30</v>
@@ -17925,7 +17917,7 @@
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -17937,24 +17929,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>2707120009</t>
+          <t>2806030002</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>LORICARIA FILAMENTOSA</t>
+          <t>ESTURION (CITES CZ18737749)</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17988,13 +17980,13 @@
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -18003,12 +17995,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -18020,28 +18012,28 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>2606050001</t>
+          <t>2707130055</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
+          <t>PEZ MARIPOSA PANTODON</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO REPTILES</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>0</v>
@@ -18074,7 +18066,7 @@
         <v>6</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S45" s="5" t="n">
         <v>0</v>
@@ -18103,24 +18095,32 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>2707100024</t>
+          <t>2806030001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>APISTOGRAMA BORELLI</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
+          <t>COMETA SURTIDO XL</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>15CM</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -18186,16 +18186,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>2708010011</t>
+          <t>2708010014</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>RANCHU SURTIDO 5-6</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="3" t="inlineStr"/>
+          <t>RYUKIN SURTIDO</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
           <t>2708</t>
@@ -18222,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -18231,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
@@ -18252,7 +18260,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -18269,32 +18277,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>2708010014</t>
+          <t>2707120009</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>RYUKIN SURTIDO</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LORICARIA FILAMENTOSA</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18313,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -18322,19 +18322,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -18343,12 +18343,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18360,12 +18360,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>2707130074</t>
+          <t>2707110003</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PEZ HACHA MARMOL</t>
+          <t>BOTIA LOHACHATA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -18405,16 +18405,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>573.33</v>
+        <v>613.33</v>
       </c>
       <c r="S49" s="5" t="n">
         <v>30</v>
@@ -18426,12 +18426,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
@@ -10971,12 +10971,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>2707130078</t>
+          <t>2707060006</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>KILLI SURTIDO</t>
+          <t>NEON CHINO ORO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -10995,37 +10995,37 @@
         <v>15</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>29.96</v>
+        <v>23.4</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>18.04</v>
+        <v>12.62</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>5.19</v>
+        <v>80</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>613.33</v>
+        <v>553.33</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>30</v>
@@ -11037,29 +11037,29 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.59€. Prioridad máxima.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>2707060006</t>
+          <t>2707130078</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>NEON CHINO ORO</t>
+          <t>KILLI SURTIDO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -11078,37 +11078,37 @@
         <v>15</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>23.4</v>
+        <v>29.96</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>12.62</v>
+        <v>18.04</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>80</v>
+        <v>5.19</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="M19" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O19" s="4" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>553.33</v>
+        <v>613.33</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -11120,17 +11120,17 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.59€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -14411,16 +14411,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2707090006</t>
+          <t>2707130026</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+          <t>PANGASIUS SUTCHI</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -14447,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -14456,19 +14464,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -14477,12 +14485,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14494,12 +14502,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>2707100014</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>OSCAR SURTIDO</t>
+          <t>PEZ GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -14530,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -14539,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -14560,7 +14568,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14577,12 +14585,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>2707130074</t>
+          <t>2707100014</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>PEZ HACHA MARMOL</t>
+          <t>OSCAR SURTIDO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -14613,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -14622,16 +14630,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>573.33</v>
+        <v>613.33</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>30</v>
@@ -14643,12 +14651,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14751,28 +14759,28 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>2104090002</t>
+          <t>2806030003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
+          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0</v>
@@ -14787,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -14796,19 +14804,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>30</v>
+        <v>613.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -14817,12 +14825,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -14834,24 +14842,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>2708020004</t>
+          <t>2707050028</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>TELESCOPIO ROJO 6-7CM</t>
+          <t>BETTA HELLBOY MACHO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14870,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -14879,16 +14887,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>246.67</v>
+        <v>613.33</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>30</v>
@@ -14900,12 +14908,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -14917,28 +14925,28 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>2707120008</t>
+          <t>2606050001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HYPANCISTRUS L66 3-4</t>
+          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO REPTILES</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>0</v>
@@ -14953,7 +14961,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -14962,19 +14970,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>506.67</v>
+        <v>20</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
@@ -14983,12 +14991,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -15000,12 +15008,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>2707100040</t>
+          <t>2707170006</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
+          <t>BADIS ESCARLATA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -15036,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -15045,16 +15053,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>613.33</v>
+        <v>180</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -15066,12 +15074,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15083,28 +15091,28 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>2707130030</t>
+          <t>2104090011</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>PEZ CUCHILLO FANTASMA</t>
+          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>0</v>
@@ -15119,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -15128,19 +15136,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>613.33</v>
+        <v>30</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
@@ -15149,12 +15157,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -15166,24 +15174,16 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>2707130026</t>
+          <t>2707090006</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PANGASIUS SUTCHI</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -15210,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -15219,19 +15219,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -15240,12 +15240,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15257,12 +15257,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>2707050028</t>
+          <t>2707130083</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BETTA HELLBOY MACHO</t>
+          <t>POPONDETA PASKAI</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -15302,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -15340,24 +15340,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>2707100024</t>
+          <t>2708020004</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>APISTOGRAMA BORELLI</t>
+          <t>TELESCOPIO ROJO 6-7CM</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15376,7 +15376,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -15385,16 +15385,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>613.33</v>
+        <v>246.67</v>
       </c>
       <c r="S13" s="5" t="n">
         <v>30</v>
@@ -15406,12 +15406,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -15423,28 +15423,28 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>2707070011</t>
+          <t>2104090002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>TETRA NEON ROSA</t>
+          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>0</v>
@@ -15459,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -15468,19 +15468,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -15489,12 +15489,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 07/05/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15506,28 +15506,28 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>2104090011</t>
+          <t>2707110001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
+          <t>BOTIA CARA CABALLO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>0</v>
@@ -15542,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -15551,16 +15551,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>0</v>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15589,12 +15589,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707120008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>PEZ  GLOBO AGUA DULCE</t>
+          <t>HYPANCISTRUS L66 3-4</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -15634,16 +15634,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>553.33</v>
+        <v>506.67</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>30</v>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15672,12 +15672,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>2707050001</t>
+          <t>2707130087</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BESUCON HELOSTOMA TEMMINCKII</t>
+          <t>MICRORASBORA KUBOTAI</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -15717,16 +15717,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -15738,12 +15738,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -15755,24 +15755,16 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>2806010002</t>
+          <t>2806030002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>COMETA SARASA XL</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>10I12</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ESTURION (CITES CZ18737749)</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
           <t>2806</t>
@@ -15799,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -15808,16 +15800,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>273.33</v>
+        <v>613.33</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>30</v>
@@ -15829,12 +15821,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15846,24 +15838,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>2708010011</t>
+          <t>2707090011</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>RANCHU SURTIDO 5-6</t>
+          <t>CICLIDO MULTICOLOR</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15882,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -15891,16 +15883,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>613.33</v>
+        <v>180</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -15912,12 +15904,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -15929,12 +15921,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>2707050022</t>
+          <t>2707120009</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BETTA KOI</t>
+          <t>LORICARIA FILAMENTOSA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -15980,13 +15972,13 @@
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -15995,12 +15987,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -16012,24 +16004,32 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>2707130020</t>
+          <t>2806010002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LABEO ZORRO VOLADOR</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
+          <t>COMETA SARASA XL</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>10I12</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16048,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -16057,19 +16057,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>60</v>
+        <v>273.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -16078,12 +16078,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -16095,28 +16095,28 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>2104050002</t>
+          <t>2707130012</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
+          <t>KILLI GARDNERI</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>0</v>
@@ -16131,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -16140,19 +16140,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>96.67</v>
+        <v>40</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -16161,12 +16161,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16178,28 +16178,28 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>2707100002</t>
+          <t>2104050002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
+          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H23" s="4" t="n">
         <v>0</v>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -16223,19 +16223,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>273.33</v>
+        <v>96.67</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16261,12 +16261,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>2707090011</t>
+          <t>2707100040</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO MULTICOLOR</t>
+          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -16306,16 +16306,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>180</v>
+        <v>613.33</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>30</v>
@@ -16327,12 +16327,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16344,28 +16344,28 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>2204010008</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
+          <t>PEZ  GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H25" s="4" t="n">
         <v>0</v>
@@ -16380,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
@@ -16398,7 +16398,7 @@
         <v>83</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>276.67</v>
+        <v>553.33</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>30</v>
@@ -16427,28 +16427,36 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>2104090001</t>
+          <t>2708010010</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="inlineStr"/>
+          <t>FANTAIL SURTIDO</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>5CM</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H26" s="4" t="n">
         <v>0</v>
@@ -16463,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -16472,19 +16480,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>30</v>
+        <v>613.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -16493,12 +16501,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -16510,12 +16518,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>2707190011</t>
+          <t>2707130020</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PLECOSTOMUS ORO</t>
+          <t>LABEO ZORRO VOLADOR</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16546,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -16555,19 +16563,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>613.33</v>
+        <v>60</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -16576,12 +16584,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16593,12 +16601,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707110003</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PEZ GLOBO AGUA DULCE</t>
+          <t>BOTIA LOHACHATA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16629,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -16638,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -16659,7 +16667,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16676,12 +16684,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>2707130083</t>
+          <t>2707040007</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>POPONDETA PASKAI</t>
+          <t>BARBO SAWBWA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -16712,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -16721,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
@@ -16742,7 +16750,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -16759,12 +16767,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>2707110001</t>
+          <t>2707190011</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>BOTIA CARA CABALLO</t>
+          <t>PLECOSTOMUS ORO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -16795,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -16804,19 +16812,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -16825,12 +16833,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16842,24 +16850,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>2606050001</t>
+          <t>2204010008</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
+          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO REPTILES</t>
+          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16878,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -16887,19 +16895,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>20</v>
+        <v>276.67</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -16908,12 +16916,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16925,12 +16933,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2707050026</t>
+          <t>2707100024</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>BETTA MACHO LONG TAIL</t>
+          <t>APISTOGRAMA BORELLI</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -16961,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -16970,16 +16978,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>313.33</v>
+        <v>613.33</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -16991,12 +16999,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -17008,12 +17016,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2707130012</t>
+          <t>2707190004</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>KILLI GARDNERI</t>
+          <t>ANCISTRUS SP ADULTO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -17044,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -17053,19 +17061,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>40</v>
+        <v>506.67</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
@@ -17074,12 +17082,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17091,24 +17099,32 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2707090002</t>
+          <t>2806030001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO TANGANICA SURTIDO</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
+          <t>COMETA SURTIDO XL</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>15CM</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17127,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -17136,16 +17152,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>30</v>
@@ -17157,12 +17173,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17174,12 +17190,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2707040007</t>
+          <t>2707050022</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>BARBO SAWBWA</t>
+          <t>BETTA KOI</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -17210,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -17219,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
@@ -17240,7 +17256,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -17257,12 +17273,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2707130086</t>
+          <t>2707050001</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>LABEO ALBINO</t>
+          <t>BESUCON HELOSTOMA TEMMINCKII</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -17293,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -17302,16 +17318,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -17323,12 +17339,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17340,32 +17356,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>2708010010</t>
+          <t>2707130055</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>FANTAIL SURTIDO</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>5CM</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PEZ MARIPOSA PANTODON</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17384,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -17393,19 +17401,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T37" s="7" t="inlineStr">
         <is>
@@ -17414,12 +17422,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -17431,24 +17439,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>2806030003</t>
+          <t>2707130086</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
+          <t>LABEO ALBINO</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17467,7 +17475,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -17476,16 +17484,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>30</v>
@@ -17497,12 +17505,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -17514,12 +17522,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>2707170006</t>
+          <t>2707130074</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>BADIS ESCARLATA</t>
+          <t>PEZ HACHA MARMOL</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17550,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -17559,16 +17567,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>180</v>
+        <v>573.33</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>30</v>
@@ -17585,7 +17593,7 @@
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 06/03/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -17597,12 +17605,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>2707050018</t>
+          <t>2707130030</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>GURAMI SURTIDO</t>
+          <t>PEZ CUCHILLO FANTASMA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17633,7 +17641,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -17642,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
@@ -17663,7 +17671,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -17680,12 +17688,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>2707130084</t>
+          <t>2707090002</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>PANCHAX RAYADO</t>
+          <t>CICLIDO TANGANICA SURTIDO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -17731,10 +17739,10 @@
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>30</v>
@@ -17746,12 +17754,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17763,24 +17771,32 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>2707190004</t>
+          <t>2708010014</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>ANCISTRUS SP ADULTO</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
+          <t>RYUKIN SURTIDO</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17799,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -17808,16 +17824,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>30</v>
@@ -17829,12 +17845,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17846,12 +17862,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>2707130087</t>
+          <t>2707130084</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>MICRORASBORA KUBOTAI</t>
+          <t>PANCHAX RAYADO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -17882,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -17891,16 +17907,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S43" s="5" t="n">
         <v>30</v>
@@ -17912,12 +17928,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -17929,28 +17945,28 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>2806030002</t>
+          <t>2104090001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ESTURION (CITES CZ18737749)</t>
+          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>0</v>
@@ -17965,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -17974,19 +17990,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>613.33</v>
+        <v>30</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -17995,12 +18011,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -18012,12 +18028,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>2707130055</t>
+          <t>2707070011</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>PEZ MARIPOSA PANTODON</t>
+          <t>TETRA NEON ROSA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -18048,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -18057,19 +18073,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -18078,12 +18094,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 07/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18095,32 +18111,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>2806030001</t>
+          <t>2707050026</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>COMETA SURTIDO XL</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>15CM</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BETTA MACHO LONG TAIL</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18139,7 +18147,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -18148,16 +18156,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>613.33</v>
+        <v>313.33</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>30</v>
@@ -18169,12 +18177,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18186,32 +18194,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>2708010014</t>
+          <t>2707050018</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>RYUKIN SURTIDO</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GURAMI SURTIDO</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
@@ -18260,7 +18260,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -18277,12 +18277,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>2707120009</t>
+          <t>2707100002</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>LORICARIA FILAMENTOSA</t>
+          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -18313,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -18322,19 +18322,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>40</v>
+        <v>273.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -18343,12 +18343,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18360,24 +18360,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>2707110003</t>
+          <t>2708010011</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>BOTIA LOHACHATA</t>
+          <t>RANCHU SURTIDO 5-6</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -18405,7 +18405,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
@@ -18426,7 +18426,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
@@ -14411,24 +14411,16 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2707130026</t>
+          <t>2707110001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>PANGASIUS SUTCHI</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOTIA CARA CABALLO</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -14455,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -14464,16 +14456,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
@@ -14490,7 +14482,7 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14502,12 +14494,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707130083</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>PEZ GLOBO AGUA DULCE</t>
+          <t>POPONDETA PASKAI</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -14538,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -14547,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -14568,7 +14560,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14585,28 +14577,28 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>2707100014</t>
+          <t>2104050002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>OSCAR SURTIDO</t>
+          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0</v>
@@ -14621,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -14630,19 +14622,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>613.33</v>
+        <v>96.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -14651,12 +14643,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14668,36 +14660,36 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>2805040002</t>
+          <t>2708010010</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PLANTA ESTANQUE FLOTANTE</t>
+          <t>FANTAIL SURTIDO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
+          <t>5CM</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
           <t>UNICO</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS JARDIN ACUATICO</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>0</v>
@@ -14712,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -14721,19 +14713,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>130</v>
+        <v>613.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -14742,12 +14734,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14759,24 +14751,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>2806030003</t>
+          <t>2707100014</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
+          <t>OSCAR SURTIDO</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -14795,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -14804,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -14825,7 +14817,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -14842,12 +14834,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>2707050028</t>
+          <t>2707110003</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BETTA HELLBOY MACHO</t>
+          <t>BOTIA LOHACHATA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -14878,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -14887,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -14908,7 +14900,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -14925,28 +14917,28 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>2606050001</t>
+          <t>2707100002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
+          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO REPTILES</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>0</v>
@@ -14961,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -14970,19 +14962,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>20</v>
+        <v>273.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
@@ -14991,12 +14983,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -15008,12 +15000,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>2707170006</t>
+          <t>2707190011</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BADIS ESCARLATA</t>
+          <t>PLECOSTOMUS ORO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -15044,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -15053,16 +15045,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>180</v>
+        <v>613.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -15074,12 +15066,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15091,28 +15083,28 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>2104090011</t>
+          <t>2806030003</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
+          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>0</v>
@@ -15127,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -15136,19 +15128,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>30</v>
+        <v>613.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
@@ -15157,12 +15149,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -15174,12 +15166,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>2707090006</t>
+          <t>2707050022</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
+          <t>BETTA KOI</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -15210,7 +15202,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -15219,16 +15211,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>180</v>
+        <v>613.33</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>30</v>
@@ -15240,12 +15232,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15257,12 +15249,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>2707130083</t>
+          <t>2707050001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>POPONDETA PASKAI</t>
+          <t>BESUCON HELOSTOMA TEMMINCKII</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15323,7 +15315,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -15340,28 +15332,28 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>2708020004</t>
+          <t>2104090002</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>TELESCOPIO ROJO 6-7CM</t>
+          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>0</v>
@@ -15376,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -15385,19 +15377,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>246.67</v>
+        <v>30</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -15406,12 +15398,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -15423,28 +15415,28 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>2104090002</t>
+          <t>2708010011</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
+          <t>RANCHU SURTIDO 5-6</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>0</v>
@@ -15459,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -15468,19 +15460,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>30</v>
+        <v>613.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -15489,12 +15481,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15506,24 +15498,32 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>2707110001</t>
+          <t>2806030001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BOTIA CARA CABALLO</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
+          <t>COMETA SURTIDO XL</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>15CM</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15542,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -15551,19 +15551,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15589,12 +15589,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>2707120008</t>
+          <t>2707130084</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>HYPANCISTRUS L66 3-4</t>
+          <t>PANCHAX RAYADO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -15634,16 +15634,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>30</v>
@@ -15655,12 +15655,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15672,28 +15672,28 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>2707130087</t>
+          <t>2104090011</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>MICRORASBORA KUBOTAI</t>
+          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>0</v>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -15717,19 +15717,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>506.67</v>
+        <v>30</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7" t="inlineStr">
         <is>
@@ -15738,12 +15738,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -15755,24 +15755,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>2806030002</t>
+          <t>2707130074</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ESTURION (CITES CZ18737749)</t>
+          <t>PEZ HACHA MARMOL</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -15800,16 +15800,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>613.33</v>
+        <v>573.33</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>30</v>
@@ -15821,12 +15821,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/03/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15838,12 +15838,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>2707090011</t>
+          <t>2707170006</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO MULTICOLOR</t>
+          <t>BADIS ESCARLATA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -15874,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
@@ -15921,24 +15921,32 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>2707120009</t>
+          <t>2806010002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LORICARIA FILAMENTOSA</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
+          <t>COMETA SARASA XL</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>10I12</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15957,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -15966,19 +15974,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>40</v>
+        <v>273.33</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -15987,12 +15995,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -16004,32 +16012,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>2806010002</t>
+          <t>2707190004</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>COMETA SARASA XL</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>10I12</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ANCISTRUS SP ADULTO</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16048,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -16057,16 +16057,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>273.33</v>
+        <v>506.67</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>30</v>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -16095,12 +16095,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>2707130012</t>
+          <t>2707100024</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>KILLI GARDNERI</t>
+          <t>APISTOGRAMA BORELLI</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -16131,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -16140,19 +16140,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -16161,12 +16161,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16178,28 +16178,28 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>2104050002</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
+          <t>PEZ  GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H23" s="4" t="n">
         <v>0</v>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -16223,19 +16223,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>96.67</v>
+        <v>553.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16261,28 +16261,36 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>2707100040</t>
+          <t>2805040002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
+          <t>PLANTA ESTANQUE FLOTANTE</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PLANTAS JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H24" s="4" t="n">
         <v>0</v>
@@ -16312,13 +16320,13 @@
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>613.33</v>
+        <v>130</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -16327,12 +16335,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16344,12 +16352,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707090002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PEZ  GLOBO AGUA DULCE</t>
+          <t>CICLIDO TANGANICA SURTIDO</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -16380,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -16389,16 +16397,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>553.33</v>
+        <v>506.67</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>30</v>
@@ -16415,7 +16423,7 @@
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16427,32 +16435,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>2708010010</t>
+          <t>2707050026</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>FANTAIL SURTIDO</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>5CM</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BETTA MACHO LONG TAIL</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -16480,16 +16480,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>613.33</v>
+        <v>313.33</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -16501,12 +16501,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -16518,12 +16518,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>2707130020</t>
+          <t>2707090011</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LABEO ZORRO VOLADOR</t>
+          <t>CICLIDO MULTICOLOR</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -16563,19 +16563,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -16584,12 +16584,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16601,12 +16601,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>2707110003</t>
+          <t>2707100040</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>BOTIA LOHACHATA</t>
+          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -16646,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -16667,7 +16667,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16684,28 +16684,28 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>2707040007</t>
+          <t>2606050001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>BARBO SAWBWA</t>
+          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO REPTILES</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H29" s="4" t="n">
         <v>0</v>
@@ -16720,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -16729,19 +16729,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>613.33</v>
+        <v>20</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -16750,12 +16750,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -16767,28 +16767,28 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>2707190011</t>
+          <t>2204010008</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>PLECOSTOMUS ORO</t>
+          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H30" s="4" t="n">
         <v>0</v>
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -16812,16 +16812,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>613.33</v>
+        <v>276.67</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>30</v>
@@ -16833,12 +16833,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16850,28 +16850,28 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>2204010008</t>
+          <t>2707130055</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
+          <t>PEZ MARIPOSA PANTODON</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>0</v>
@@ -16886,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -16895,19 +16895,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>276.67</v>
+        <v>40</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16933,16 +16933,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2707100024</t>
+          <t>2707130026</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>APISTOGRAMA BORELLI</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
+          <t>PANGASIUS SUTCHI</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -16969,7 +16977,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -16978,19 +16986,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>613.33</v>
+        <v>60</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -16999,12 +17007,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -17016,12 +17024,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2707190004</t>
+          <t>2707050018</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ANCISTRUS SP ADULTO</t>
+          <t>GURAMI SURTIDO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -17052,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -17061,16 +17069,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>30</v>
@@ -17082,12 +17090,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17099,32 +17107,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2806030001</t>
+          <t>2707130086</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>COMETA SURTIDO XL</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>15CM</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LABEO ALBINO</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17158,10 +17158,10 @@
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>30</v>
@@ -17173,12 +17173,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17190,28 +17190,28 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2707050022</t>
+          <t>2104090001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>BETTA KOI</t>
+          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H35" s="4" t="n">
         <v>0</v>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -17235,19 +17235,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>613.33</v>
+        <v>30</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T35" s="7" t="inlineStr">
         <is>
@@ -17256,12 +17256,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -17273,12 +17273,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2707050001</t>
+          <t>2707130020</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>BESUCON HELOSTOMA TEMMINCKII</t>
+          <t>LABEO ZORRO VOLADOR</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -17309,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -17318,19 +17318,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>613.33</v>
+        <v>60</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T36" s="7" t="inlineStr">
         <is>
@@ -17339,12 +17339,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17356,12 +17356,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>2707130055</t>
+          <t>2707040007</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>PEZ MARIPOSA PANTODON</t>
+          <t>BARBO SAWBWA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -17401,19 +17401,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T37" s="7" t="inlineStr">
         <is>
@@ -17422,12 +17422,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -17439,24 +17439,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>2707130086</t>
+          <t>2708020004</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>LABEO ALBINO</t>
+          <t>TELESCOPIO ROJO 6-7CM</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17475,7 +17475,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -17484,16 +17484,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>506.67</v>
+        <v>246.67</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>30</v>
@@ -17510,7 +17510,7 @@
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -17522,12 +17522,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>2707130074</t>
+          <t>2707090006</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PEZ HACHA MARMOL</t>
+          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -17567,16 +17567,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>573.33</v>
+        <v>180</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>30</v>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/03/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -17605,12 +17605,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>2707130030</t>
+          <t>2707130012</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PEZ CUCHILLO FANTASMA</t>
+          <t>KILLI GARDNERI</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -17650,19 +17650,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T40" s="7" t="inlineStr">
         <is>
@@ -17671,12 +17671,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17688,24 +17688,32 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>2707090002</t>
+          <t>2708010014</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO TANGANICA SURTIDO</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
+          <t>RYUKIN SURTIDO</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17724,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -17733,16 +17741,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>30</v>
@@ -17754,12 +17762,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17771,32 +17779,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>2708010014</t>
+          <t>2707120008</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>RYUKIN SURTIDO</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYPANCISTRUS L66 3-4</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17815,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -17824,16 +17824,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>30</v>
@@ -17845,12 +17845,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17862,12 +17862,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>2707130084</t>
+          <t>2707050028</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>PANCHAX RAYADO</t>
+          <t>BETTA HELLBOY MACHO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -17898,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -17907,7 +17907,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
@@ -17928,7 +17928,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -17945,28 +17945,28 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>2104090001</t>
+          <t>2707070011</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
+          <t>TETRA NEON ROSA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>0</v>
@@ -17981,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -17990,19 +17990,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -18011,12 +18011,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 07/05/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -18028,12 +18028,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>2707070011</t>
+          <t>2707120009</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>TETRA NEON ROSA</t>
+          <t>LORICARIA FILAMENTOSA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -18073,19 +18073,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -18094,12 +18094,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 07/05/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18111,12 +18111,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>2707050026</t>
+          <t>2707130030</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>BETTA MACHO LONG TAIL</t>
+          <t>PEZ CUCHILLO FANTASMA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -18147,7 +18147,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -18156,16 +18156,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>313.33</v>
+        <v>613.33</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>30</v>
@@ -18177,12 +18177,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18194,12 +18194,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>2707050018</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>GURAMI SURTIDO</t>
+          <t>PEZ GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
@@ -18260,7 +18260,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -18277,24 +18277,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>2707100002</t>
+          <t>2806030002</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
+          <t>ESTURION (CITES CZ18737749)</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18313,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -18322,16 +18322,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>273.33</v>
+        <v>613.33</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>30</v>
@@ -18343,12 +18343,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18360,24 +18360,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>2708010011</t>
+          <t>2707130087</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>RANCHU SURTIDO 5-6</t>
+          <t>MICRORASBORA KUBOTAI</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -18405,16 +18405,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S49" s="5" t="n">
         <v>30</v>
@@ -18426,12 +18426,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
@@ -14405,12 +14405,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2707130055</t>
+          <t>2707120008</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>PEZ MARIPOSA PANTODON</t>
+          <t>HYPANCISTRUS L66 3-4</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
@@ -14441,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
@@ -14450,19 +14450,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>40</v>
+        <v>506.67</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T2" s="6" t="inlineStr">
         <is>
@@ -14471,12 +14471,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -14488,24 +14488,24 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2707130084</t>
+          <t>2806030002</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>PANCHAX RAYADO</t>
+          <t>ESTURION (CITES CZ18737749)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -14524,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -14533,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>92</v>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -14571,28 +14571,28 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2104090002</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
+          <t>PEZ  GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>0</v>
@@ -14607,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -14616,19 +14616,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>30</v>
+        <v>553.33</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T4" s="6" t="inlineStr">
         <is>
@@ -14637,12 +14637,12 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
@@ -14654,12 +14654,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707130087</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>PEZ  GLOBO AGUA DULCE</t>
+          <t>MICRORASBORA KUBOTAI</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -14690,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -14699,16 +14699,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>553.33</v>
+        <v>506.67</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>30</v>
@@ -14725,7 +14725,7 @@
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
@@ -14737,12 +14737,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2707130020</t>
+          <t>2707170006</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>LABEO ZORRO VOLADOR</t>
+          <t>BADIS ESCARLATA</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>0</v>
@@ -14782,19 +14782,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="6" t="inlineStr">
         <is>
@@ -14803,12 +14803,12 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W6" s="3" t="inlineStr">
@@ -14820,12 +14820,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2707120009</t>
+          <t>2707110003</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>LORICARIA FILAMENTOSA</t>
+          <t>BOTIA LOHACHATA</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
@@ -14865,19 +14865,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T7" s="6" t="inlineStr">
         <is>
@@ -14886,12 +14886,12 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
@@ -14903,28 +14903,28 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2806030002</t>
+          <t>2204010008</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>ESTURION (CITES CZ18737749)</t>
+          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>0</v>
@@ -14939,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>0</v>
@@ -14948,16 +14948,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>613.33</v>
+        <v>276.67</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>30</v>
@@ -14969,12 +14969,12 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
@@ -14986,12 +14986,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2707100014</t>
+          <t>2707090002</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>OSCAR SURTIDO</t>
+          <t>CICLIDO TANGANICA SURTIDO</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>0</v>
@@ -15031,16 +15031,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>30</v>
@@ -15052,12 +15052,12 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -15069,12 +15069,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2707110003</t>
+          <t>2707090006</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>BOTIA LOHACHATA</t>
+          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -15105,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>0</v>
@@ -15114,16 +15114,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>613.33</v>
+        <v>180</v>
       </c>
       <c r="S10" s="4" t="n">
         <v>30</v>
@@ -15135,12 +15135,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -15152,12 +15152,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2707050022</t>
+          <t>2707100040</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>BETTA KOI</t>
+          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -15188,7 +15188,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>0</v>
@@ -15197,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>92</v>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
@@ -15235,28 +15235,28 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2707170006</t>
+          <t>2104090011</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>BADIS ESCARLATA</t>
+          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>0</v>
@@ -15271,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -15280,19 +15280,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T12" s="6" t="inlineStr">
         <is>
@@ -15301,12 +15301,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -15318,28 +15318,28 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2104090011</t>
+          <t>2707120009</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
+          <t>LORICARIA FILAMENTOSA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>0</v>
@@ -15354,7 +15354,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
@@ -15363,16 +15363,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S13" s="4" t="n">
         <v>0</v>
@@ -15389,7 +15389,7 @@
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
@@ -15401,24 +15401,32 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2708010011</t>
+          <t>2806010002</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>RANCHU SURTIDO 5-6</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="2" t="inlineStr"/>
+          <t>COMETA SARASA XL</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10I12</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
@@ -15437,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -15446,16 +15454,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>613.33</v>
+        <v>273.33</v>
       </c>
       <c r="S14" s="4" t="n">
         <v>30</v>
@@ -15467,12 +15475,12 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W14" s="3" t="inlineStr">
@@ -15484,12 +15492,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2707110001</t>
+          <t>2707190011</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>BOTIA CARA CABALLO</t>
+          <t>PLECOSTOMUS ORO</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -15520,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0</v>
@@ -15529,19 +15537,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T15" s="6" t="inlineStr">
         <is>
@@ -15550,12 +15558,12 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -15567,28 +15575,28 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2806030003</t>
+          <t>2606050001</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
+          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>ANIMAL VIVO REPTILES</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>0</v>
@@ -15603,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>0</v>
@@ -15612,19 +15620,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>613.33</v>
+        <v>20</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T16" s="6" t="inlineStr">
         <is>
@@ -15633,12 +15641,12 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
@@ -15650,24 +15658,24 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2708020004</t>
+          <t>2707040007</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>TELESCOPIO ROJO 6-7CM</t>
+          <t>BARBO SAWBWA</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -15701,10 +15709,10 @@
         <v>92</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>246.67</v>
+        <v>613.33</v>
       </c>
       <c r="S17" s="4" t="n">
         <v>30</v>
@@ -15716,12 +15724,12 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
@@ -15733,24 +15741,32 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2707130083</t>
+          <t>2708010010</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>POPONDETA PASKAI</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
+          <t>FANTAIL SURTIDO</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5CM</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -15769,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -15778,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>92</v>
@@ -15799,7 +15815,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -15816,32 +15832,24 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2708010010</t>
+          <t>2707100024</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>FANTAIL SURTIDO</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>5CM</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>APISTOGRAMA BORELLI</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -15860,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>0</v>
@@ -15869,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>92</v>
@@ -15890,7 +15898,7 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -15907,12 +15915,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2707090011</t>
+          <t>2707130086</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>CICLIDO MULTICOLOR</t>
+          <t>LABEO ALBINO</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -15958,10 +15966,10 @@
         <v>92</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>180</v>
+        <v>506.67</v>
       </c>
       <c r="S20" s="4" t="n">
         <v>30</v>
@@ -15978,7 +15986,7 @@
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
@@ -15990,36 +15998,28 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2805040002</t>
+          <t>2707130055</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>PLANTA ESTANQUE FLOTANTE</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PEZ MARIPOSA PANTODON</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>0</v>
@@ -16034,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>0</v>
@@ -16043,19 +16043,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T21" s="6" t="inlineStr">
         <is>
@@ -16064,12 +16064,12 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W21" s="3" t="inlineStr">
@@ -16081,12 +16081,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2707070011</t>
+          <t>2707100014</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>TETRA NEON ROSA</t>
+          <t>OSCAR SURTIDO</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>0</v>
@@ -16126,16 +16126,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>160</v>
+        <v>613.33</v>
       </c>
       <c r="S22" s="4" t="n">
         <v>30</v>
@@ -16147,12 +16147,12 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
         <is>
-          <t>Compra 07/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="3" t="inlineStr">
@@ -16164,28 +16164,28 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2707050001</t>
+          <t>2104090001</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>BESUCON HELOSTOMA TEMMINCKII</t>
+          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>0</v>
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
@@ -16209,19 +16209,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>613.33</v>
+        <v>30</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T23" s="6" t="inlineStr">
         <is>
@@ -16230,12 +16230,12 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W23" s="3" t="inlineStr">
@@ -16247,17 +16247,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2708010014</t>
+          <t>2806030001</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>RYUKIN SURTIDO</t>
+          <t>COMETA SURTIDO XL</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5I6</t>
+          <t>15CM</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -16267,12 +16267,12 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
@@ -16291,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M24" s="4" t="n">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>92</v>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
@@ -16338,12 +16338,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2707190004</t>
+          <t>2707130084</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>ANCISTRUS SP ADULTO</t>
+          <t>PANCHAX RAYADO</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -16374,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>0</v>
@@ -16383,16 +16383,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S25" s="4" t="n">
         <v>30</v>
@@ -16404,12 +16404,12 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="3" t="inlineStr">
@@ -16421,28 +16421,28 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2606050001</t>
+          <t>2707070011</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
+          <t>TETRA NEON ROSA</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO REPTILES</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G26" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>0</v>
@@ -16457,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>0</v>
@@ -16466,19 +16466,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T26" s="6" t="inlineStr">
         <is>
@@ -16487,12 +16487,12 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 07/05/2025</t>
         </is>
       </c>
       <c r="W26" s="3" t="inlineStr">
@@ -16504,12 +16504,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2707100002</t>
+          <t>2707050018</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
+          <t>GURAMI SURTIDO</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>0</v>
@@ -16549,16 +16549,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>273.33</v>
+        <v>613.33</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>30</v>
@@ -16570,12 +16570,12 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
@@ -16587,24 +16587,24 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2708020004</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>PEZ GLOBO AGUA DULCE</t>
+          <t>TELESCOPIO ROJO 6-7CM</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G28" s="3" t="n">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>0</v>
@@ -16632,16 +16632,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>613.33</v>
+        <v>246.67</v>
       </c>
       <c r="S28" s="4" t="n">
         <v>30</v>
@@ -16653,12 +16653,12 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
@@ -16670,28 +16670,28 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2104050002</t>
+          <t>2707100002</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
+          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>0</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>0</v>
@@ -16715,19 +16715,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>96.67</v>
+        <v>273.33</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T29" s="6" t="inlineStr">
         <is>
@@ -16736,12 +16736,12 @@
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
@@ -16753,12 +16753,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2707050028</t>
+          <t>2707050022</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>BETTA HELLBOY MACHO</t>
+          <t>BETTA KOI</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -16789,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>0</v>
@@ -16798,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>92</v>
@@ -16819,7 +16819,7 @@
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
@@ -16836,24 +16836,24 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2707190011</t>
+          <t>2708010011</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>PLECOSTOMUS ORO</t>
+          <t>RANCHU SURTIDO 5-6</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
@@ -16872,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>0</v>
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>92</v>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
@@ -16919,12 +16919,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2707090006</t>
+          <t>2707130030</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
+          <t>PEZ CUCHILLO FANTASMA</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -16955,7 +16955,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M32" s="4" t="n">
         <v>0</v>
@@ -16964,16 +16964,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>180</v>
+        <v>613.33</v>
       </c>
       <c r="S32" s="4" t="n">
         <v>30</v>
@@ -16985,12 +16985,12 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
@@ -17002,12 +17002,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2707130086</t>
+          <t>2707050028</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>LABEO ALBINO</t>
+          <t>BETTA HELLBOY MACHO</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>0</v>
@@ -17047,16 +17047,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>30</v>
@@ -17068,12 +17068,12 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
@@ -17085,17 +17085,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2707130026</t>
+          <t>2805040002</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>PANGASIUS SUTCHI</t>
+          <t>PLANTA ESTANQUE FLOTANTE</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>5I6</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -17105,16 +17105,16 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PLANTAS JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>0</v>
@@ -17129,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>0</v>
@@ -17138,19 +17138,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T34" s="6" t="inlineStr">
         <is>
@@ -17159,12 +17159,12 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
@@ -17176,36 +17176,28 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2806030001</t>
+          <t>2104090002</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>COMETA SURTIDO XL</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>15CM</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>0</v>
@@ -17220,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>0</v>
@@ -17229,19 +17221,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P35" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>613.33</v>
+        <v>30</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T35" s="6" t="inlineStr">
         <is>
@@ -17250,12 +17242,12 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
@@ -17267,12 +17259,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2707090002</t>
+          <t>2707050001</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>CICLIDO TANGANICA SURTIDO</t>
+          <t>BESUCON HELOSTOMA TEMMINCKII</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -17318,10 +17310,10 @@
         <v>92</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S36" s="4" t="n">
         <v>30</v>
@@ -17333,12 +17325,12 @@
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
@@ -17350,28 +17342,28 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2707100024</t>
+          <t>2104050002</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>APISTOGRAMA BORELLI</t>
+          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G37" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>0</v>
@@ -17386,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="4" t="n">
         <v>0</v>
@@ -17395,19 +17387,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>613.33</v>
+        <v>96.67</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
@@ -17416,12 +17408,12 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
@@ -17433,12 +17425,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2707130074</t>
+          <t>2707110001</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>PEZ HACHA MARMOL</t>
+          <t>BOTIA CARA CABALLO</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -17469,7 +17461,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>0</v>
@@ -17478,19 +17470,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>573.33</v>
+        <v>40</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T38" s="6" t="inlineStr">
         <is>
@@ -17499,12 +17491,12 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/03/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
@@ -17516,12 +17508,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2707130012</t>
+          <t>2707050026</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>KILLI GARDNERI</t>
+          <t>BETTA MACHO LONG TAIL</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -17552,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M39" s="4" t="n">
         <v>0</v>
@@ -17561,19 +17553,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>40</v>
+        <v>313.33</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
@@ -17582,12 +17574,12 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
@@ -17599,12 +17591,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2707100040</t>
+          <t>2707190004</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
+          <t>ANCISTRUS SP ADULTO</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -17635,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>0</v>
@@ -17644,16 +17636,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>30</v>
@@ -17665,12 +17657,12 @@
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
@@ -17682,16 +17674,24 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2707120008</t>
+          <t>2707130026</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>HYPANCISTRUS L66 3-4</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
+          <t>PANGASIUS SUTCHI</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t>2707</t>
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>0</v>
@@ -17727,19 +17727,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>506.67</v>
+        <v>60</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T41" s="6" t="inlineStr">
         <is>
@@ -17748,12 +17748,12 @@
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
@@ -17765,24 +17765,24 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2707040007</t>
+          <t>2806030003</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>BARBO SAWBWA</t>
+          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G42" s="3" t="n">
@@ -17801,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>0</v>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>92</v>
@@ -17831,7 +17831,7 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
@@ -17848,12 +17848,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2707050018</t>
+          <t>2707130012</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>GURAMI SURTIDO</t>
+          <t>KILLI GARDNERI</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>0</v>
@@ -17893,19 +17893,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R43" s="3" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T43" s="6" t="inlineStr">
         <is>
@@ -17914,12 +17914,12 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W43" s="3" t="inlineStr">
@@ -17931,12 +17931,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2707130087</t>
+          <t>2707090011</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>MICRORASBORA KUBOTAI</t>
+          <t>CICLIDO MULTICOLOR</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M44" s="4" t="n">
         <v>0</v>
@@ -17976,16 +17976,16 @@
         <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>506.67</v>
+        <v>180</v>
       </c>
       <c r="S44" s="4" t="n">
         <v>30</v>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="V44" s="3" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W44" s="3" t="inlineStr">
@@ -18014,28 +18014,28 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2104090001</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
+          <t>PEZ GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G45" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>0</v>
@@ -18050,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>0</v>
@@ -18059,19 +18059,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>30</v>
+        <v>613.33</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
@@ -18080,12 +18080,12 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
@@ -18097,24 +18097,32 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2707130030</t>
+          <t>2708010014</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>PEZ CUCHILLO FANTASMA</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
+          <t>RYUKIN SURTIDO</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G46" s="3" t="n">
@@ -18133,7 +18141,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>0</v>
@@ -18142,7 +18150,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>92</v>
@@ -18163,7 +18171,7 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
@@ -18180,28 +18188,28 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2204010008</t>
+          <t>2707130020</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
+          <t>LABEO ZORRO VOLADOR</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>0</v>
@@ -18216,7 +18224,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>0</v>
@@ -18225,19 +18233,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>276.67</v>
+        <v>60</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T47" s="6" t="inlineStr">
         <is>
@@ -18246,12 +18254,12 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
@@ -18263,32 +18271,24 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2806010002</t>
+          <t>2707130083</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>COMETA SARASA XL</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>10I12</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>POPONDETA PASKAI</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G48" s="3" t="n">
@@ -18307,7 +18307,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>0</v>
@@ -18316,16 +18316,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>273.33</v>
+        <v>613.33</v>
       </c>
       <c r="S48" s="4" t="n">
         <v>30</v>
@@ -18337,12 +18337,12 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="3" t="inlineStr">
@@ -18354,12 +18354,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2707050026</t>
+          <t>2707130074</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>BETTA MACHO LONG TAIL</t>
+          <t>PEZ HACHA MARMOL</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -18390,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>0</v>
@@ -18399,16 +18399,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>313.33</v>
+        <v>573.33</v>
       </c>
       <c r="S49" s="4" t="n">
         <v>30</v>
@@ -18425,7 +18425,7 @@
       </c>
       <c r="V49" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Compra 06/03/2025</t>
         </is>
       </c>
       <c r="W49" s="3" t="inlineStr">
